--- a/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3D9BE0-85FA-4B66-8829-02293A0F040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC23838-116A-471E-8F19-8A81EBF11E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E55882B-5F59-4E73-91BA-50ED46B655EE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFBF33F4-1665-4B70-A93F-2AE783E5ED52}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>62,01%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
   </si>
   <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,99%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>62,7%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,16 +137,16 @@
     <t>64,19%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>43,89%</t>
+    <t>44,42%</t>
   </si>
   <si>
     <t>52,86%</t>
@@ -155,19 +155,19 @@
     <t>58,89%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>51,63%</t>
@@ -176,16 +176,16 @@
     <t>47,14%</t>
   </si>
   <si>
-    <t>56,11%</t>
+    <t>55,58%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>67,15%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D297CB3B-5706-41B6-BB8A-021DE3EAD6B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE8C5F-95B6-42E3-9629-7B2F50D26044}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,7 +1002,7 @@
         <v>244</v>
       </c>
       <c r="I7" s="7">
-        <v>250766</v>
+        <v>250767</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1104,7 +1104,7 @@
         <v>498</v>
       </c>
       <c r="I9" s="7">
-        <v>518395</v>
+        <v>518396</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC23838-116A-471E-8F19-8A81EBF11E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECCA03F-0B54-4635-ABDE-A8A5EE3850AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFBF33F4-1665-4B70-A93F-2AE783E5ED52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1DF0271-7347-4055-B8C4-DA552A6E8877}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>62,01%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,99%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>62,7%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>64,19%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>58,89%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,7 +194,7 @@
     <t>67,15%</t>
   </si>
   <si>
-    <t>62,13%</t>
+    <t>62,28%</t>
   </si>
   <si>
     <t>72,1%</t>
@@ -203,19 +203,19 @@
     <t>57,93%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>32,85%</t>
@@ -224,79 +224,79 @@
     <t>27,9%</t>
   </si>
   <si>
-    <t>37,87%</t>
+    <t>37,72%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE8C5F-95B6-42E3-9629-7B2F50D26044}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83865770-F899-44F3-939E-9DB5235457AE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,7 +1002,7 @@
         <v>244</v>
       </c>
       <c r="I7" s="7">
-        <v>250767</v>
+        <v>250766</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1104,7 +1104,7 @@
         <v>498</v>
       </c>
       <c r="I9" s="7">
-        <v>518396</v>
+        <v>518395</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECCA03F-0B54-4635-ABDE-A8A5EE3850AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC937B4F-00BA-4738-A5E0-9524BF24D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1DF0271-7347-4055-B8C4-DA552A6E8877}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBECAE2A-3171-420B-B8C4-B5A5ABB4DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,99%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>62,7%</t>
   </si>
   <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>64,19%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
   </si>
   <si>
     <t>58,89%</t>
   </si>
   <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>67,15%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83865770-F899-44F3-939E-9DB5235457AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ABD13F-D239-4884-A91B-3EB15D83D8B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC937B4F-00BA-4738-A5E0-9524BF24D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{239E5E75-A7A9-4033-9F97-E245B3EE3B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBECAE2A-3171-420B-B8C4-B5A5ABB4DA0B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F8F9A6CF-FA71-4FC3-81F3-0D3A3CF4BE26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ABD13F-D239-4884-A91B-3EB15D83D8B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6D8070-58D5-4302-99EB-471B4B3CA892}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
